--- a/streamlit_0/data/Variable .xlsx
+++ b/streamlit_0/data/Variable .xlsx
@@ -101,7 +101,7 @@
     <t>Number of hospitalizations</t>
   </si>
   <si>
-    <t>(&gt;=0)</t>
+    <t>(0=0, 1=At least once)</t>
   </si>
   <si>
     <t>Online participation</t>
@@ -1045,7 +1045,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
